--- a/dist/document/dest/2020/10/doctors/216.xlsx
+++ b/dist/document/dest/2020/10/doctors/216.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>15</v>
       </c>
-      <c r="C2" s="1">
-        <v>132000</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>142</v>
       </c>
-      <c r="C3" s="1">
-        <v>1796300</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>2278</v>
       </c>
-      <c r="C4" s="1">
-        <v>13098500</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>70</v>
       </c>
-      <c r="C5" s="1">
-        <v>265300</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>28</v>
       </c>
-      <c r="C6" s="1">
-        <v>6776</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>3974</v>
       </c>
-      <c r="C7" s="1">
-        <v>45462560</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>888</v>
       </c>
-      <c r="C8" s="1">
-        <v>6642240</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>582</v>
       </c>
-      <c r="C9" s="1">
-        <v>4353360</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>15</v>
       </c>
-      <c r="C10" s="1">
-        <v>87450</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
-        <v>25800</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>1754</v>
       </c>
-      <c r="C12" s="1">
-        <v>18908120</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>480</v>
       </c>
-      <c r="C13" s="1">
-        <v>8289600</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>305</v>
       </c>
-      <c r="C14" s="1">
-        <v>1052250</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>319</v>
       </c>
-      <c r="C15" s="1">
-        <v>4421340</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>28</v>
       </c>
-      <c r="C16" s="1">
-        <v>86940</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>90</v>
       </c>
-      <c r="C17" s="1">
-        <v>324900</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>514</v>
       </c>
-      <c r="C18" s="1">
-        <v>1714190</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>134</v>
       </c>
-      <c r="C19" s="1">
-        <v>810700</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>7</v>
       </c>
-      <c r="C20" s="1">
-        <v>73150</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>22</v>
       </c>
-      <c r="C21" s="1">
-        <v>338800</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>21</v>
       </c>
-      <c r="C22" s="1">
-        <v>355740</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>1132</v>
       </c>
-      <c r="C23" s="1">
-        <v>5467560</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>5</v>
       </c>
-      <c r="C24" s="1">
-        <v>79750</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>10</v>
       </c>
-      <c r="C25" s="1">
-        <v>99000</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>3720</v>
       </c>
-      <c r="C26" s="1">
-        <v>12834000</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>814</v>
       </c>
-      <c r="C27" s="1">
-        <v>3276350</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>189</v>
       </c>
-      <c r="C28" s="1">
-        <v>27216</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>28</v>
       </c>
-      <c r="C29" s="1">
-        <v>99820</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>252</v>
       </c>
-      <c r="C30" s="1">
-        <v>2439360</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>28</v>
       </c>
-      <c r="C31" s="1">
-        <v>96600</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>60</v>
       </c>
-      <c r="C32" s="1">
-        <v>462000</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>221</v>
       </c>
-      <c r="C33" s="1">
-        <v>735930</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>5</v>
       </c>
-      <c r="C34" s="1">
-        <v>21275</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>224</v>
       </c>
-      <c r="C35" s="1">
-        <v>1232000</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>264</v>
       </c>
-      <c r="C36" s="1">
-        <v>1974720</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>15</v>
       </c>
-      <c r="C37" s="1">
-        <v>280500</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>160</v>
       </c>
-      <c r="C38" s="1">
-        <v>644000</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>10</v>
       </c>
-      <c r="C39" s="1">
-        <v>32200</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>260</v>
       </c>
-      <c r="C40" s="1">
-        <v>1255800</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>112</v>
       </c>
-      <c r="C41" s="1">
-        <v>206080</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>15</v>
       </c>
-      <c r="C42" s="1">
-        <v>94050</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>2415</v>
       </c>
-      <c r="C43" s="1">
-        <v>6109950</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>5</v>
       </c>
-      <c r="C44" s="1">
-        <v>63250</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>1064</v>
       </c>
-      <c r="C45" s="1">
-        <v>7022400</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>226</v>
       </c>
-      <c r="C46" s="1">
-        <v>2361700</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>56</v>
       </c>
-      <c r="C47" s="1">
-        <v>180320</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>243</v>
       </c>
-      <c r="C48" s="1">
-        <v>1603800</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>826</v>
       </c>
-      <c r="C49" s="1">
-        <v>12266100</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>10</v>
       </c>
-      <c r="C50" s="1">
-        <v>88000</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>284</v>
       </c>
-      <c r="C51" s="1">
-        <v>1143100</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>635</v>
       </c>
-      <c r="C52" s="1">
-        <v>5937250</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>4977</v>
       </c>
-      <c r="C53" s="1">
-        <v>45987480</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>44</v>
       </c>
-      <c r="C54" s="1">
-        <v>96140</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>146</v>
       </c>
-      <c r="C55" s="1">
-        <v>1043900</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>28</v>
       </c>
-      <c r="C56" s="1">
-        <v>151340</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>4610</v>
       </c>
-      <c r="C57" s="1">
-        <v>23580150</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1020,9 +852,6 @@
       <c r="B58" s="1">
         <v>321</v>
       </c>
-      <c r="C58" s="1">
-        <v>3495690</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1031,9 +860,6 @@
       <c r="B59" s="1">
         <v>72</v>
       </c>
-      <c r="C59" s="1">
-        <v>248400</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1042,9 +868,6 @@
       <c r="B60" s="1">
         <v>30</v>
       </c>
-      <c r="C60" s="1">
-        <v>262350</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1053,9 +876,6 @@
       <c r="B61" s="1">
         <v>180</v>
       </c>
-      <c r="C61" s="1">
-        <v>434700</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1064,9 +884,6 @@
       <c r="B62" s="1">
         <v>414</v>
       </c>
-      <c r="C62" s="1">
-        <v>1190250</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1075,9 +892,6 @@
       <c r="B63" s="1">
         <v>28</v>
       </c>
-      <c r="C63" s="1">
-        <v>148120</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1086,9 +900,6 @@
       <c r="B64" s="1">
         <v>120</v>
       </c>
-      <c r="C64" s="1">
-        <v>327600</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1098,7 +909,7 @@
         <v>35934</v>
       </c>
       <c r="C65" s="1">
-        <v>253346217</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/216.xlsx
+++ b/dist/document/dest/2020/10/doctors/216.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,522 +399,590 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Aluantine (Almagate 500mg)</v>
+        <v>Amisate (Donepezil 5mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="C2" s="1">
+        <v>759000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Amisate (Donepezil 5mg)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>142</v>
+        <v>670</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3852500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Anbach (Ginkgo biloba 80mg)</v>
+        <v>Artan 2mg(Trihexyphenidyl)</v>
       </c>
       <c r="B4" s="1">
-        <v>2278</v>
+        <v>28</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6776</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Arcalion (Sulbutiamine 200mg)</v>
+        <v>Asentra (Sertraline 50mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>70</v>
+        <v>1988</v>
+      </c>
+      <c r="C5" s="1">
+        <v>22742720</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Artan 2mg(Trihexyphenidyl)</v>
+        <v>Asentra (Sertraline 50mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>171600</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Asentra (Sertraline 50mg)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B7" s="1">
-        <v>3974</v>
+        <v>580</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4338400</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
+        <v>Bar 60v/lọ</v>
       </c>
       <c r="B8" s="1">
-        <v>888</v>
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>82000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Bilomag (Ginkgo biloba 80mg)</v>
+        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
       </c>
       <c r="B9" s="1">
-        <v>582</v>
+        <v>934</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10068520</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
+        <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B10" s="1">
-        <v>15</v>
+        <v>374</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6458980</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Bustidin (Trimetazidin 20mg)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>58650</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+        <v>Dasbrain (DHA, EPA, Tuna)</v>
       </c>
       <c r="B12" s="1">
-        <v>1754</v>
+        <v>280</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3880800</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Cododamed (Pregabalina 75mg)</v>
+        <v>Dasbrain (DHA, EPA, Tuna)</v>
       </c>
       <c r="B13" s="1">
-        <v>480</v>
+        <v>30</v>
+      </c>
+      <c r="C13" s="1">
+        <v>415800</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Corbis (Bisoprolol 5mg)</v>
+        <v>Destor (Desloratadine 5mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>305</v>
+        <v>44</v>
+      </c>
+      <c r="C14" s="1">
+        <v>136620</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Dasbrain (DHA, EPA, Tuna)</v>
+        <v>Doniwell (Levosulpiride 25mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>319</v>
+        <v>168</v>
+      </c>
+      <c r="C15" s="1">
+        <v>560280</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Destor (Desloratadine 5mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B16" s="1">
         <v>28</v>
       </c>
+      <c r="C16" s="1">
+        <v>292600</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Diamicron MR 30mg (Gliclazide)</v>
+        <v>Europlin (Amitriptyline 25mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>90</v>
+        <v>600</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2898000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Doniwell (Levosulpiride 25mg)</v>
+        <v>Gabena (Olanzapine 10mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>514</v>
+        <v>1953</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6737850</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Enterobella (Bacillus clausii)</v>
+        <v>Gujujnam (Piracetam 800mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>134</v>
+        <v>730</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2938250</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Esocon  20mg (Esomeprazole)</v>
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
       </c>
       <c r="B20" s="1">
-        <v>7</v>
+        <v>88</v>
+      </c>
+      <c r="C20" s="1">
+        <v>313720</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Esofar (Esomeprazole 40mg)</v>
+        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
       </c>
       <c r="B21" s="1">
-        <v>22</v>
+        <v>146</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1413280</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Esomaxcare (Esomeprazole 40mg)</v>
+        <v>Lepigin 25 (Clozapin)</v>
       </c>
       <c r="B22" s="1">
-        <v>21</v>
+        <v>140</v>
+      </c>
+      <c r="C22" s="1">
+        <v>466200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Europlin (Amitriptyline 25mg)</v>
+        <v>Liverterder (L-Cystine, choline hydrogen tartrate)</v>
       </c>
       <c r="B23" s="1">
-        <v>1132</v>
+        <v>60</v>
+      </c>
+      <c r="C23" s="1">
+        <v>330000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Febuday (Febuxostat 40mg)</v>
+        <v>Livosil (Silymarin 140mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>5</v>
+        <v>172</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1286560</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+        <v>Locinvid (Levofloxacin 500mg)</v>
       </c>
       <c r="B25" s="1">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="C25" s="1">
+        <v>411400</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Gabena (Olanzapine 10mg)</v>
+        <v>Luvox (Fluvoxamine 100mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>3720</v>
+        <v>21</v>
+      </c>
+      <c r="C26" s="1">
+        <v>166950</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Gujujnam (Piracetam 800mg)</v>
+        <v>Mageum (Magnesium Valproate 200mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>814</v>
+        <v>428</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1722700</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Halofar (Haloperidol) 2mg</v>
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
       </c>
       <c r="B28" s="1">
-        <v>189</v>
+        <v>168</v>
+      </c>
+      <c r="C28" s="1">
+        <v>811440</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+        <v>Metozamin (Metformin 850mg)</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
       </c>
+      <c r="C29" s="1">
+        <v>51520</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
+        <v>Nilkey (Fluoxetin 20mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>252</v>
+        <v>2082</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5267460</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+        <v>Noraquick (Gabapentin 300mg)</v>
       </c>
       <c r="B31" s="1">
-        <v>28</v>
+        <v>524</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3458400</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Legalon (Silymarin 140mg)</v>
+        <v>Nykob (Olanzapin 10mg)</v>
       </c>
       <c r="B32" s="1">
-        <v>60</v>
+        <v>119</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1243550</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Lepigin 25 (Clozapin)</v>
+        <v>Oxabiti (Mecobalamine 500mg)</v>
       </c>
       <c r="B33" s="1">
-        <v>221</v>
+        <v>12</v>
+      </c>
+      <c r="C33" s="1">
+        <v>38640</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Lisopress (Lisinopril 5mg)</v>
+        <v>Pantonix (Pantoprazole 40mg)</v>
       </c>
       <c r="B34" s="1">
-        <v>5</v>
+        <v>135</v>
+      </c>
+      <c r="C34" s="1">
+        <v>891000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Liverterder (L-Cystine, choline hydrogen tartrate)</v>
+        <v>Prepentin (Pregabalin 75mg)</v>
       </c>
       <c r="B35" s="1">
-        <v>224</v>
+        <v>1482</v>
+      </c>
+      <c r="C35" s="1">
+        <v>22007700</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Livosil (Silymarin 140mg)</v>
+        <v>Prepentin (Pregabalin 75mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>264</v>
+        <v>20</v>
+      </c>
+      <c r="C36" s="1">
+        <v>297000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Locinvid (Levofloxacin 500mg)</v>
+        <v>Prosgesy (Topiramate 50mg)</v>
       </c>
       <c r="B37" s="1">
-        <v>15</v>
+        <v>214</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2000900</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Mageum (Magnesium Valproate 200mg)</v>
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
       </c>
       <c r="B38" s="1">
-        <v>160</v>
+        <v>56</v>
+      </c>
+      <c r="C38" s="1">
+        <v>431200</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Mecitil (Flunarizine 5.9mg)</v>
+        <v>Remem (Ginkgo biloba 120mg)</v>
       </c>
       <c r="B39" s="1">
-        <v>10</v>
+        <v>3470</v>
+      </c>
+      <c r="C39" s="1">
+        <v>32062800</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+        <v>Remem (Ginkgo biloba 120mg)</v>
       </c>
       <c r="B40" s="1">
-        <v>260</v>
+        <v>60</v>
+      </c>
+      <c r="C40" s="1">
+        <v>554400</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Metozamin (Metformin 850mg)</v>
+        <v>Risperstad (Risperidone 2mg)</v>
       </c>
       <c r="B41" s="1">
-        <v>112</v>
+        <v>42</v>
+      </c>
+      <c r="C41" s="1">
+        <v>91770</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Mirastad (Mirtazapine 30mg)</v>
+        <v>Rotalzon (Losartan 50mg)</v>
       </c>
       <c r="B42" s="1">
-        <v>15</v>
+        <v>112</v>
+      </c>
+      <c r="C42" s="1">
+        <v>800800</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Nilkey (Fluoxetin 20mg)</v>
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B43" s="1">
-        <v>2415</v>
+        <v>292</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1578260</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Nolpaza (Pantoprazole 40mg)</v>
+        <v xml:space="preserve">Sorbitol </v>
       </c>
       <c r="B44" s="1">
-        <v>5</v>
+        <v>75</v>
+      </c>
+      <c r="C44" s="1">
+        <v>166500</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Noraquick (Gabapentin 300mg)</v>
+        <v>Stroseca (Ivermectin 6mg)</v>
       </c>
       <c r="B45" s="1">
-        <v>1064</v>
+        <v>5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>550000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Nykob (Olanzapin 10mg)</v>
+        <v>Sumiko (Paroxetine 20mg)</v>
       </c>
       <c r="B46" s="1">
-        <v>226</v>
+        <v>1308</v>
+      </c>
+      <c r="C46" s="1">
+        <v>6690420</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Oxabiti (Mecobalamine 500mg)</v>
+        <v>Sumiko (Paroxetine 20mg)</v>
       </c>
       <c r="B47" s="1">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="C47" s="1">
+        <v>153450</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Pantonix (Pantoprazole 40mg)</v>
+        <v>Surotadina (Rosuvastatin 10mg)</v>
       </c>
       <c r="B48" s="1">
-        <v>243</v>
+        <v>131</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1426590</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Prepentin (Pregabalin 75mg)</v>
+        <v>Theralene (Alimemazine 5mg)</v>
       </c>
       <c r="B49" s="1">
-        <v>826</v>
+        <v>28</v>
+      </c>
+      <c r="C49" s="1">
+        <v>14280</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+        <v>Triglo (Fenofibrate 200mg)</v>
       </c>
       <c r="B50" s="1">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="C50" s="1">
+        <v>103500</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Promag (Magnesium Valproate 200mg)</v>
+        <v>Verist (Betahistine 16mg)</v>
       </c>
       <c r="B51" s="1">
-        <v>284</v>
+        <v>112</v>
+      </c>
+      <c r="C51" s="1">
+        <v>322000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Prosgesy (Topiramate 50mg)</v>
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
       </c>
       <c r="B52" s="1">
-        <v>635</v>
+        <v>58</v>
+      </c>
+      <c r="C52" s="1">
+        <v>306820</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Remem (Ginkgo biloba 120mg)</v>
+        <v>Zopistad (Zopiclone 7.5mg)</v>
       </c>
       <c r="B53" s="1">
-        <v>4977</v>
+        <v>30</v>
+      </c>
+      <c r="C53" s="1">
+        <v>81900</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Risperstad (Risperidone 2mg)</v>
+        <v>Tổng cộng</v>
       </c>
       <c r="B54" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>Rotalzon (Losartan 50mg)</v>
-      </c>
-      <c r="B55" s="1">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>Seovigo (Ginkgo biloba 80mg)</v>
-      </c>
-      <c r="B56" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>Sumiko (Paroxetine 20mg)</v>
-      </c>
-      <c r="B57" s="1">
-        <v>4610</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>Surotadina (Rosuvastatin 10mg)</v>
-      </c>
-      <c r="B58" s="1">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>Triglo (Fenofibrate 200mg)</v>
-      </c>
-      <c r="B59" s="1">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>Trimebutine Gerda 200mg</v>
-      </c>
-      <c r="B60" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>Tyrozet (Metformin 850mg)</v>
-      </c>
-      <c r="B61" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>Verist (Betahistine 16mg)</v>
-      </c>
-      <c r="B62" s="1">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>Zedcal-OP (Calcium, zinc, D3)</v>
-      </c>
-      <c r="B63" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>Zopistad (Zopiclone 7.5mg)</v>
-      </c>
-      <c r="B64" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>Tổng cộng</v>
-      </c>
-      <c r="B65" s="1">
-        <v>35934</v>
-      </c>
-      <c r="C65" s="1">
-        <v>NaN</v>
+        <v>20203</v>
+      </c>
+      <c r="C54" s="1">
+        <v>153912456</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C65"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C54"/>
   </ignoredErrors>
 </worksheet>
 </file>